--- a/Code/Results/Cases/Case_3_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9866880556200854</v>
+        <v>1.019094646265327</v>
       </c>
       <c r="D2">
-        <v>1.00662917011111</v>
+        <v>1.025148302528871</v>
       </c>
       <c r="E2">
-        <v>0.9949439335322749</v>
+        <v>1.020272647394891</v>
       </c>
       <c r="F2">
-        <v>0.9602827332212327</v>
+        <v>1.032619258696602</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035514395790429</v>
+        <v>1.029025155640607</v>
       </c>
       <c r="J2">
-        <v>1.009274347928899</v>
+        <v>1.02429935787862</v>
       </c>
       <c r="K2">
-        <v>1.017996916220632</v>
+        <v>1.027974722202116</v>
       </c>
       <c r="L2">
-        <v>1.006474159731918</v>
+        <v>1.023113422815218</v>
       </c>
       <c r="M2">
-        <v>0.972324599396718</v>
+        <v>1.035423966993559</v>
       </c>
       <c r="N2">
-        <v>1.010707633268344</v>
+        <v>1.025753980455587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9912248082372226</v>
+        <v>1.020036125399992</v>
       </c>
       <c r="D3">
-        <v>1.009997148853719</v>
+        <v>1.025853833890716</v>
       </c>
       <c r="E3">
-        <v>0.9985534455474226</v>
+        <v>1.021071199257753</v>
       </c>
       <c r="F3">
-        <v>0.9717293457157533</v>
+        <v>1.034759587619546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036925071980826</v>
+        <v>1.029229049537346</v>
       </c>
       <c r="J3">
-        <v>1.011957586389828</v>
+        <v>1.024877485143739</v>
       </c>
       <c r="K3">
-        <v>1.020503692564281</v>
+        <v>1.02848777156243</v>
       </c>
       <c r="L3">
-        <v>1.009204868829964</v>
+        <v>1.023718199423944</v>
       </c>
       <c r="M3">
-        <v>0.9827372076106173</v>
+        <v>1.037369549619592</v>
       </c>
       <c r="N3">
-        <v>1.013394682235659</v>
+        <v>1.026332928727735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9940949183551238</v>
+        <v>1.020645589142858</v>
       </c>
       <c r="D4">
-        <v>1.012126429143037</v>
+        <v>1.026310265215647</v>
       </c>
       <c r="E4">
-        <v>1.000842965475722</v>
+        <v>1.021588526313318</v>
       </c>
       <c r="F4">
-        <v>0.9788116164812813</v>
+        <v>1.036138934122311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037796973012706</v>
+        <v>1.029359252625616</v>
       </c>
       <c r="J4">
-        <v>1.013650892483662</v>
+        <v>1.025251251916586</v>
       </c>
       <c r="K4">
-        <v>1.022080669206859</v>
+        <v>1.028818983791318</v>
       </c>
       <c r="L4">
-        <v>1.010931227283138</v>
+        <v>1.024109490924874</v>
       </c>
       <c r="M4">
-        <v>0.9891726772480159</v>
+        <v>1.038622547520839</v>
       </c>
       <c r="N4">
-        <v>1.015090393018372</v>
+        <v>1.02670722629227</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9952865288436018</v>
+        <v>1.020901870865851</v>
       </c>
       <c r="D5">
-        <v>1.013010143258572</v>
+        <v>1.026502126145679</v>
       </c>
       <c r="E5">
-        <v>1.001794932283173</v>
+        <v>1.021806156251865</v>
       </c>
       <c r="F5">
-        <v>0.981717884025108</v>
+        <v>1.036717504187739</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038154217937651</v>
+        <v>1.029413577135423</v>
       </c>
       <c r="J5">
-        <v>1.014352920996472</v>
+        <v>1.025408306746106</v>
       </c>
       <c r="K5">
-        <v>1.022733315071882</v>
+        <v>1.028958042465486</v>
       </c>
       <c r="L5">
-        <v>1.011647684530747</v>
+        <v>1.024273980197612</v>
       </c>
       <c r="M5">
-        <v>0.991811800904561</v>
+        <v>1.039147918337746</v>
       </c>
       <c r="N5">
-        <v>1.015793418492193</v>
+        <v>1.026864504157662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9954857458867317</v>
+        <v>1.020944905399075</v>
       </c>
       <c r="D6">
-        <v>1.013157866961919</v>
+        <v>1.02653433909859</v>
       </c>
       <c r="E6">
-        <v>1.001954166504047</v>
+        <v>1.02184270580099</v>
       </c>
       <c r="F6">
-        <v>0.9822018627520258</v>
+        <v>1.036814572882794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038213668581792</v>
+        <v>1.029422674285323</v>
       </c>
       <c r="J6">
-        <v>1.014470229856584</v>
+        <v>1.025434672442061</v>
       </c>
       <c r="K6">
-        <v>1.022842305262011</v>
+        <v>1.028981380306076</v>
       </c>
       <c r="L6">
-        <v>1.011767446642018</v>
+        <v>1.024301598095739</v>
       </c>
       <c r="M6">
-        <v>0.9922511899622176</v>
+        <v>1.039236049756607</v>
       </c>
       <c r="N6">
-        <v>1.015910893944342</v>
+        <v>1.026890907295929</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9941108987154543</v>
+        <v>1.020649013343593</v>
       </c>
       <c r="D7">
-        <v>1.012138281628569</v>
+        <v>1.026312828960596</v>
       </c>
       <c r="E7">
-        <v>1.000855726536379</v>
+        <v>1.021591433723628</v>
       </c>
       <c r="F7">
-        <v>0.9788507216202185</v>
+        <v>1.036146670102674</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037801782484617</v>
+        <v>1.029359980133133</v>
       </c>
       <c r="J7">
-        <v>1.013660311124156</v>
+        <v>1.025253350792476</v>
       </c>
       <c r="K7">
-        <v>1.022089429829149</v>
+        <v>1.028820842618782</v>
       </c>
       <c r="L7">
-        <v>1.010940836656098</v>
+        <v>1.024111688876931</v>
       </c>
       <c r="M7">
-        <v>0.9892081947306819</v>
+        <v>1.03862957297627</v>
       </c>
       <c r="N7">
-        <v>1.015099825034415</v>
+        <v>1.026709328148804</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9882352627034915</v>
+        <v>1.019412768940691</v>
       </c>
       <c r="D8">
-        <v>1.007778095793235</v>
+        <v>1.025386759674863</v>
       </c>
       <c r="E8">
-        <v>0.9961736295846209</v>
+        <v>1.020542394989413</v>
       </c>
       <c r="F8">
-        <v>0.964222597961375</v>
+        <v>1.033343768936809</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035999923716699</v>
+        <v>1.029094421498023</v>
       </c>
       <c r="J8">
-        <v>1.010190327641062</v>
+        <v>1.024494804968849</v>
       </c>
       <c r="K8">
-        <v>1.018853728606862</v>
+        <v>1.028148268162887</v>
       </c>
       <c r="L8">
-        <v>1.007405682173957</v>
+        <v>1.02331781792056</v>
       </c>
       <c r="M8">
-        <v>0.9759100430305755</v>
+        <v>1.036082729809031</v>
       </c>
       <c r="N8">
-        <v>1.011624913776763</v>
+        <v>1.025949705103101</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9773458351745657</v>
+        <v>1.017236366766826</v>
       </c>
       <c r="D9">
-        <v>0.999684173328561</v>
+        <v>1.023754187011795</v>
       </c>
       <c r="E9">
-        <v>0.9875460995073476</v>
+        <v>1.018698553742043</v>
       </c>
       <c r="F9">
-        <v>0.9356069276950895</v>
+        <v>1.028360489931845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032485711588652</v>
+        <v>1.028613165965093</v>
       </c>
       <c r="J9">
-        <v>1.003724739138629</v>
+        <v>1.023155699192395</v>
       </c>
       <c r="K9">
-        <v>1.012782376679216</v>
+        <v>1.026957236602726</v>
       </c>
       <c r="L9">
-        <v>1.000844516780545</v>
+        <v>1.021918623639666</v>
       </c>
       <c r="M9">
-        <v>0.9498389325171568</v>
+        <v>1.031548191839349</v>
       </c>
       <c r="N9">
-        <v>1.005150143397043</v>
+        <v>1.024608697642847</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9696713855558902</v>
+        <v>1.015786782401105</v>
       </c>
       <c r="D10">
-        <v>0.9939669292293002</v>
+        <v>1.022665323041222</v>
       </c>
       <c r="E10">
-        <v>0.9815021437311032</v>
+        <v>1.017472513039292</v>
       </c>
       <c r="F10">
-        <v>0.9139980537872928</v>
+        <v>1.025006604673706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029870630517694</v>
+        <v>1.028283297828366</v>
       </c>
       <c r="J10">
-        <v>0.9991422139926939</v>
+        <v>1.022261312697127</v>
       </c>
       <c r="K10">
-        <v>1.008445973760435</v>
+        <v>1.026159251316915</v>
       </c>
       <c r="L10">
-        <v>0.9962136122799219</v>
+        <v>1.020985640993043</v>
       </c>
       <c r="M10">
-        <v>0.9301155067036033</v>
+        <v>1.028491946729126</v>
       </c>
       <c r="N10">
-        <v>1.000561110539777</v>
+        <v>1.023713041016169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9662351796985789</v>
+        <v>1.015159413943473</v>
       </c>
       <c r="D11">
-        <v>0.9914023802510479</v>
+        <v>1.022193717673224</v>
       </c>
       <c r="E11">
-        <v>0.9788051554501405</v>
+        <v>1.016942384589977</v>
       </c>
       <c r="F11">
-        <v>0.9038482648941976</v>
+        <v>1.023546372125335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028660472432356</v>
+        <v>1.028138299762637</v>
       </c>
       <c r="J11">
-        <v>0.9970833473173497</v>
+        <v>1.021873640957981</v>
       </c>
       <c r="K11">
-        <v>1.006488277104824</v>
+        <v>1.025812769532826</v>
       </c>
       <c r="L11">
-        <v>0.9941381588041087</v>
+        <v>1.020581606171808</v>
       </c>
       <c r="M11">
-        <v>0.9208438232591257</v>
+        <v>1.027160265774158</v>
       </c>
       <c r="N11">
-        <v>0.9984993200375987</v>
+        <v>1.023324818738687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9649403165988873</v>
+        <v>1.014926427750358</v>
       </c>
       <c r="D12">
-        <v>0.9904350696251205</v>
+        <v>1.022018524198061</v>
       </c>
       <c r="E12">
-        <v>0.9777902683331174</v>
+        <v>1.016745585050963</v>
       </c>
       <c r="F12">
-        <v>0.8999368713413953</v>
+        <v>1.023002739510728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028197792070023</v>
+        <v>1.028084114302721</v>
       </c>
       <c r="J12">
-        <v>0.9963063230422706</v>
+        <v>1.021729582629283</v>
       </c>
       <c r="K12">
-        <v>1.00574784186249</v>
+        <v>1.025683927664414</v>
       </c>
       <c r="L12">
-        <v>0.9933557108035723</v>
+        <v>1.020431522562637</v>
       </c>
       <c r="M12">
-        <v>0.9172698234983468</v>
+        <v>1.02666433623751</v>
       </c>
       <c r="N12">
-        <v>0.9977211922989232</v>
+        <v>1.023180555830637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9652189336608734</v>
+        <v>1.014976401986606</v>
       </c>
       <c r="D13">
-        <v>0.9906432524114038</v>
+        <v>1.022056104622318</v>
       </c>
       <c r="E13">
-        <v>0.9780085781123927</v>
+        <v>1.016787794067146</v>
       </c>
       <c r="F13">
-        <v>0.9007826990629183</v>
+        <v>1.023119407166117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02829766283463</v>
+        <v>1.028095752081325</v>
       </c>
       <c r="J13">
-        <v>0.9964735720872486</v>
+        <v>1.021760486338843</v>
       </c>
       <c r="K13">
-        <v>1.0059072907766</v>
+        <v>1.025711571167516</v>
       </c>
       <c r="L13">
-        <v>0.9935240883278668</v>
+        <v>1.020463716327162</v>
       </c>
       <c r="M13">
-        <v>0.9180427333000022</v>
+        <v>1.026770773491289</v>
       </c>
       <c r="N13">
-        <v>0.9978886788567287</v>
+        <v>1.02321150342701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9661285330681157</v>
+        <v>1.015140154287968</v>
       </c>
       <c r="D14">
-        <v>0.9913227313308992</v>
+        <v>1.022179236499359</v>
       </c>
       <c r="E14">
-        <v>0.9787215390313936</v>
+        <v>1.016926114756133</v>
       </c>
       <c r="F14">
-        <v>0.9035279815397357</v>
+        <v>1.023501460748712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028622505846208</v>
+        <v>1.028133827450967</v>
       </c>
       <c r="J14">
-        <v>0.9970193754719814</v>
+        <v>1.021861734272491</v>
       </c>
       <c r="K14">
-        <v>1.006427351168141</v>
+        <v>1.025802122346394</v>
       </c>
       <c r="L14">
-        <v>0.9940737230362684</v>
+        <v>1.020569200358492</v>
       </c>
       <c r="M14">
-        <v>0.920551186577554</v>
+        <v>1.027119298486151</v>
       </c>
       <c r="N14">
-        <v>0.9984352573448723</v>
+        <v>1.023312895144337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9666864657014489</v>
+        <v>1.015241053620799</v>
       </c>
       <c r="D15">
-        <v>0.9917393840578808</v>
+        <v>1.02225509968866</v>
       </c>
       <c r="E15">
-        <v>0.9791590446959662</v>
+        <v>1.017011353782176</v>
       </c>
       <c r="F15">
-        <v>0.9051999453323988</v>
+        <v>1.023736691458786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028820855734973</v>
+        <v>1.028157243595697</v>
       </c>
       <c r="J15">
-        <v>0.9973540016374082</v>
+        <v>1.021924108537253</v>
       </c>
       <c r="K15">
-        <v>1.006745978666926</v>
+        <v>1.025857894936379</v>
       </c>
       <c r="L15">
-        <v>0.9944108103413587</v>
+        <v>1.020634191612214</v>
       </c>
       <c r="M15">
-        <v>0.9220787879796515</v>
+        <v>1.027333865017676</v>
       </c>
       <c r="N15">
-        <v>0.9987703587178359</v>
+        <v>1.023375357987709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9698969290962178</v>
+        <v>1.015828425304555</v>
       </c>
       <c r="D16">
-        <v>0.9941351463024773</v>
+        <v>1.02269661938976</v>
       </c>
       <c r="E16">
-        <v>0.9816793610149513</v>
+        <v>1.017507711857284</v>
       </c>
       <c r="F16">
-        <v>0.9146531982286339</v>
+        <v>1.025103344129028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029949187096538</v>
+        <v>1.028292875151663</v>
       </c>
       <c r="J16">
-        <v>0.9992771965931225</v>
+        <v>1.022287032822232</v>
       </c>
       <c r="K16">
-        <v>1.008574114307953</v>
+        <v>1.026182226133795</v>
       </c>
       <c r="L16">
-        <v>0.9963497941149597</v>
+        <v>1.02101245446002</v>
       </c>
       <c r="M16">
-        <v>0.9307138286990413</v>
+        <v>1.02858014794185</v>
       </c>
       <c r="N16">
-        <v>1.000696284830981</v>
+        <v>1.023738797666801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9718794969287401</v>
+        <v>1.01619695109616</v>
       </c>
       <c r="D17">
-        <v>0.9956132574263098</v>
+        <v>1.022973540750658</v>
       </c>
       <c r="E17">
-        <v>0.9832381786291875</v>
+        <v>1.017819266588866</v>
       </c>
       <c r="F17">
-        <v>0.9203568229787603</v>
+        <v>1.025958446231257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030635191472937</v>
+        <v>1.028377372921807</v>
       </c>
       <c r="J17">
-        <v>1.000462907178506</v>
+        <v>1.022514579341268</v>
       </c>
       <c r="K17">
-        <v>1.00969864181235</v>
+        <v>1.026385416103332</v>
       </c>
       <c r="L17">
-        <v>0.9975466279596757</v>
+        <v>1.021249716126444</v>
       </c>
       <c r="M17">
-        <v>0.9359219455041775</v>
+        <v>1.029359659179141</v>
       </c>
       <c r="N17">
-        <v>1.001883679261399</v>
+        <v>1.023966667327994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9730250949345749</v>
+        <v>1.016411936002462</v>
       </c>
       <c r="D18">
-        <v>0.9964669376914665</v>
+        <v>1.023135052725545</v>
       </c>
       <c r="E18">
-        <v>0.984139783515993</v>
+        <v>1.018001064046954</v>
       </c>
       <c r="F18">
-        <v>0.9236089063771994</v>
+        <v>1.026456445690358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031027935615514</v>
+        <v>1.028426450465968</v>
       </c>
       <c r="J18">
-        <v>1.001147395392979</v>
+        <v>1.022647265137724</v>
       </c>
       <c r="K18">
-        <v>1.010346936350914</v>
+        <v>1.026503841860151</v>
       </c>
       <c r="L18">
-        <v>0.9982380185330892</v>
+        <v>1.021388102292243</v>
       </c>
       <c r="M18">
-        <v>0.9388908032964987</v>
+        <v>1.029813535883532</v>
       </c>
       <c r="N18">
-        <v>1.002569139527648</v>
+        <v>1.0240995415535</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9734139240111656</v>
+        <v>1.016485245406363</v>
       </c>
       <c r="D19">
-        <v>0.9967566195664708</v>
+        <v>1.023190122177898</v>
       </c>
       <c r="E19">
-        <v>0.9844459439644029</v>
+        <v>1.018063064629544</v>
       </c>
       <c r="F19">
-        <v>0.9247056832996891</v>
+        <v>1.026626121676486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031160636861919</v>
+        <v>1.028443149314669</v>
       </c>
       <c r="J19">
-        <v>1.00137960995605</v>
+        <v>1.022692501085388</v>
       </c>
       <c r="K19">
-        <v>1.010566728377393</v>
+        <v>1.026544206476116</v>
       </c>
       <c r="L19">
-        <v>0.9984726547436614</v>
+        <v>1.021435287626085</v>
       </c>
       <c r="M19">
-        <v>0.9398919398289716</v>
+        <v>1.029968161663071</v>
       </c>
       <c r="N19">
-        <v>1.002801683862034</v>
+        <v>1.024144841741399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9716679133561905</v>
+        <v>1.016157408661282</v>
       </c>
       <c r="D20">
-        <v>0.9954555558236574</v>
+        <v>1.022943830907654</v>
       </c>
       <c r="E20">
-        <v>0.9830717284500844</v>
+        <v>1.017785832176988</v>
       </c>
       <c r="F20">
-        <v>0.9197527502243414</v>
+        <v>1.025866781493667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030562363682762</v>
+        <v>1.028368328697372</v>
       </c>
       <c r="J20">
-        <v>1.00033643476562</v>
+        <v>1.022490169710077</v>
       </c>
       <c r="K20">
-        <v>1.009578787270935</v>
+        <v>1.026363625212378</v>
       </c>
       <c r="L20">
-        <v>0.997418918742385</v>
+        <v>1.021224260665783</v>
       </c>
       <c r="M20">
-        <v>0.9353704241715713</v>
+        <v>1.029276107904609</v>
       </c>
       <c r="N20">
-        <v>1.00175702724318</v>
+        <v>1.023942223032327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9658612029765142</v>
+        <v>1.01509193203915</v>
       </c>
       <c r="D21">
-        <v>0.9911230605729299</v>
+        <v>1.022142977735935</v>
       </c>
       <c r="E21">
-        <v>0.9785119614848902</v>
+        <v>1.016885379617829</v>
       </c>
       <c r="F21">
-        <v>0.9027236750576443</v>
+        <v>1.023388989958041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028527225208062</v>
+        <v>1.02812262423706</v>
       </c>
       <c r="J21">
-        <v>0.996858998312418</v>
+        <v>1.021831920931736</v>
       </c>
       <c r="K21">
-        <v>1.006274583748462</v>
+        <v>1.025775461236123</v>
       </c>
       <c r="L21">
-        <v>0.9939121965226847</v>
+        <v>1.020538138136107</v>
       </c>
       <c r="M21">
-        <v>0.9198162918716123</v>
+        <v>1.027016702296718</v>
       </c>
       <c r="N21">
-        <v>0.9982746524313465</v>
+        <v>1.023283039465219</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9621022737374423</v>
+        <v>1.014422292778186</v>
       </c>
       <c r="D22">
-        <v>0.9883129505147064</v>
+        <v>1.021639343887389</v>
       </c>
       <c r="E22">
-        <v>0.9755685141721397</v>
+        <v>1.016319887732223</v>
       </c>
       <c r="F22">
-        <v>0.8911830605307087</v>
+        <v>1.021823926234665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027170380528402</v>
+        <v>1.027966248876644</v>
       </c>
       <c r="J22">
-        <v>0.9946009036309651</v>
+        <v>1.021417707785826</v>
       </c>
       <c r="K22">
-        <v>1.004119540653767</v>
+        <v>1.02540483093648</v>
       </c>
       <c r="L22">
-        <v>0.9916400135291646</v>
+        <v>1.020106704652715</v>
       </c>
       <c r="M22">
-        <v>0.9092694277294169</v>
+        <v>1.025588677584487</v>
       </c>
       <c r="N22">
-        <v>0.9960133509964393</v>
+        <v>1.022868238089131</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9641057724825941</v>
+        <v>1.014777255924655</v>
       </c>
       <c r="D23">
-        <v>0.9898113427766754</v>
+        <v>1.021906339811625</v>
       </c>
       <c r="E23">
-        <v>0.9771365734191164</v>
+        <v>1.016619603178323</v>
       </c>
       <c r="F23">
-        <v>0.897389201215344</v>
+        <v>1.022654289569007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027897600230798</v>
+        <v>1.028049326276384</v>
       </c>
       <c r="J23">
-        <v>0.9958051748112728</v>
+        <v>1.021637322887156</v>
       </c>
       <c r="K23">
-        <v>1.005269815457112</v>
+        <v>1.025601387770518</v>
       </c>
       <c r="L23">
-        <v>0.9928513095547262</v>
+        <v>1.020335419597578</v>
       </c>
       <c r="M23">
-        <v>0.9149416507771224</v>
+        <v>1.026346418536257</v>
       </c>
       <c r="N23">
-        <v>0.997219332379955</v>
+        <v>1.023088165069094</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9717635521313843</v>
+        <v>1.016175276093178</v>
       </c>
       <c r="D24">
-        <v>0.995526840487479</v>
+        <v>1.022957255543007</v>
       </c>
       <c r="E24">
-        <v>0.9831469636115456</v>
+        <v>1.017800939523888</v>
       </c>
       <c r="F24">
-        <v>0.9200259340756453</v>
+        <v>1.025908203211841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030595294157749</v>
+        <v>1.028372416037635</v>
       </c>
       <c r="J24">
-        <v>1.000393604120779</v>
+        <v>1.022501199490196</v>
       </c>
       <c r="K24">
-        <v>1.009632967847535</v>
+        <v>1.026373471861084</v>
       </c>
       <c r="L24">
-        <v>0.9974766456817719</v>
+        <v>1.021235762907147</v>
       </c>
       <c r="M24">
-        <v>0.9356198445282728</v>
+        <v>1.029313863596686</v>
       </c>
       <c r="N24">
-        <v>1.00181427778538</v>
+        <v>1.023953268475999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9802297146821068</v>
+        <v>1.017798780324638</v>
       </c>
       <c r="D25">
-        <v>1.001829550948161</v>
+        <v>1.024176331214086</v>
       </c>
       <c r="E25">
-        <v>0.9898248857602703</v>
+        <v>1.0191746711453</v>
       </c>
       <c r="F25">
-        <v>0.9433973435108886</v>
+        <v>1.02965422741026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033438455310977</v>
+        <v>1.028739167568079</v>
       </c>
       <c r="J25">
-        <v>1.005441250901292</v>
+        <v>1.023502180669101</v>
       </c>
       <c r="K25">
-        <v>1.014399531731305</v>
+        <v>1.027265844123941</v>
       </c>
       <c r="L25">
-        <v>1.002583237984188</v>
+        <v>1.022280382433029</v>
       </c>
       <c r="M25">
-        <v>0.9569428617542934</v>
+        <v>1.032726197203327</v>
       </c>
       <c r="N25">
-        <v>1.006869092803296</v>
+        <v>1.024955671162993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019094646265327</v>
+        <v>0.9866880556200854</v>
       </c>
       <c r="D2">
-        <v>1.025148302528871</v>
+        <v>1.00662917011111</v>
       </c>
       <c r="E2">
-        <v>1.020272647394891</v>
+        <v>0.9949439335322746</v>
       </c>
       <c r="F2">
-        <v>1.032619258696602</v>
+        <v>0.9602827332212328</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029025155640607</v>
+        <v>1.035514395790429</v>
       </c>
       <c r="J2">
-        <v>1.02429935787862</v>
+        <v>1.009274347928899</v>
       </c>
       <c r="K2">
-        <v>1.027974722202116</v>
+        <v>1.017996916220632</v>
       </c>
       <c r="L2">
-        <v>1.023113422815218</v>
+        <v>1.006474159731917</v>
       </c>
       <c r="M2">
-        <v>1.035423966993559</v>
+        <v>0.972324599396718</v>
       </c>
       <c r="N2">
-        <v>1.025753980455587</v>
+        <v>1.010707633268344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020036125399992</v>
+        <v>0.9912248082372219</v>
       </c>
       <c r="D3">
-        <v>1.025853833890716</v>
+        <v>1.009997148853718</v>
       </c>
       <c r="E3">
-        <v>1.021071199257753</v>
+        <v>0.9985534455474223</v>
       </c>
       <c r="F3">
-        <v>1.034759587619546</v>
+        <v>0.9717293457157534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029229049537346</v>
+        <v>1.036925071980826</v>
       </c>
       <c r="J3">
-        <v>1.024877485143739</v>
+        <v>1.011957586389827</v>
       </c>
       <c r="K3">
-        <v>1.02848777156243</v>
+        <v>1.020503692564281</v>
       </c>
       <c r="L3">
-        <v>1.023718199423944</v>
+        <v>1.009204868829964</v>
       </c>
       <c r="M3">
-        <v>1.037369549619592</v>
+        <v>0.9827372076106174</v>
       </c>
       <c r="N3">
-        <v>1.026332928727735</v>
+        <v>1.013394682235658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020645589142858</v>
+        <v>0.9940949183551235</v>
       </c>
       <c r="D4">
-        <v>1.026310265215647</v>
+        <v>1.012126429143036</v>
       </c>
       <c r="E4">
-        <v>1.021588526313318</v>
+        <v>1.000842965475721</v>
       </c>
       <c r="F4">
-        <v>1.036138934122311</v>
+        <v>0.9788116164812821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029359252625616</v>
+        <v>1.037796973012705</v>
       </c>
       <c r="J4">
-        <v>1.025251251916586</v>
+        <v>1.013650892483662</v>
       </c>
       <c r="K4">
-        <v>1.028818983791318</v>
+        <v>1.022080669206858</v>
       </c>
       <c r="L4">
-        <v>1.024109490924874</v>
+        <v>1.010931227283138</v>
       </c>
       <c r="M4">
-        <v>1.038622547520839</v>
+        <v>0.9891726772480165</v>
       </c>
       <c r="N4">
-        <v>1.02670722629227</v>
+        <v>1.015090393018371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020901870865851</v>
+        <v>0.9952865288436031</v>
       </c>
       <c r="D5">
-        <v>1.026502126145679</v>
+        <v>1.013010143258573</v>
       </c>
       <c r="E5">
-        <v>1.021806156251865</v>
+        <v>1.001794932283175</v>
       </c>
       <c r="F5">
-        <v>1.036717504187739</v>
+        <v>0.9817178840251093</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029413577135423</v>
+        <v>1.038154217937651</v>
       </c>
       <c r="J5">
-        <v>1.025408306746106</v>
+        <v>1.014352920996473</v>
       </c>
       <c r="K5">
-        <v>1.028958042465486</v>
+        <v>1.022733315071883</v>
       </c>
       <c r="L5">
-        <v>1.024273980197612</v>
+        <v>1.011647684530748</v>
       </c>
       <c r="M5">
-        <v>1.039147918337746</v>
+        <v>0.9918118009045623</v>
       </c>
       <c r="N5">
-        <v>1.026864504157662</v>
+        <v>1.015793418492194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020944905399075</v>
+        <v>0.9954857458867307</v>
       </c>
       <c r="D6">
-        <v>1.02653433909859</v>
+        <v>1.013157866961917</v>
       </c>
       <c r="E6">
-        <v>1.02184270580099</v>
+        <v>1.001954166504046</v>
       </c>
       <c r="F6">
-        <v>1.036814572882794</v>
+        <v>0.9822018627520257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029422674285323</v>
+        <v>1.038213668581791</v>
       </c>
       <c r="J6">
-        <v>1.025434672442061</v>
+        <v>1.014470229856583</v>
       </c>
       <c r="K6">
-        <v>1.028981380306076</v>
+        <v>1.02284230526201</v>
       </c>
       <c r="L6">
-        <v>1.024301598095739</v>
+        <v>1.011767446642017</v>
       </c>
       <c r="M6">
-        <v>1.039236049756607</v>
+        <v>0.9922511899622174</v>
       </c>
       <c r="N6">
-        <v>1.026890907295929</v>
+        <v>1.015910893944341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020649013343593</v>
+        <v>0.9941108987154542</v>
       </c>
       <c r="D7">
-        <v>1.026312828960596</v>
+        <v>1.012138281628569</v>
       </c>
       <c r="E7">
-        <v>1.021591433723628</v>
+        <v>1.000855726536378</v>
       </c>
       <c r="F7">
-        <v>1.036146670102674</v>
+        <v>0.978850721620218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029359980133133</v>
+        <v>1.037801782484617</v>
       </c>
       <c r="J7">
-        <v>1.025253350792476</v>
+        <v>1.013660311124156</v>
       </c>
       <c r="K7">
-        <v>1.028820842618782</v>
+        <v>1.022089429829148</v>
       </c>
       <c r="L7">
-        <v>1.024111688876931</v>
+        <v>1.010940836656097</v>
       </c>
       <c r="M7">
-        <v>1.03862957297627</v>
+        <v>0.9892081947306813</v>
       </c>
       <c r="N7">
-        <v>1.026709328148804</v>
+        <v>1.015099825034415</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019412768940691</v>
+        <v>0.9882352627034916</v>
       </c>
       <c r="D8">
-        <v>1.025386759674863</v>
+        <v>1.007778095793235</v>
       </c>
       <c r="E8">
-        <v>1.020542394989413</v>
+        <v>0.996173629584621</v>
       </c>
       <c r="F8">
-        <v>1.033343768936809</v>
+        <v>0.964222597961375</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029094421498023</v>
+        <v>1.0359999237167</v>
       </c>
       <c r="J8">
-        <v>1.024494804968849</v>
+        <v>1.010190327641062</v>
       </c>
       <c r="K8">
-        <v>1.028148268162887</v>
+        <v>1.018853728606863</v>
       </c>
       <c r="L8">
-        <v>1.02331781792056</v>
+        <v>1.007405682173957</v>
       </c>
       <c r="M8">
-        <v>1.036082729809031</v>
+        <v>0.9759100430305755</v>
       </c>
       <c r="N8">
-        <v>1.025949705103101</v>
+        <v>1.011624913776763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017236366766826</v>
+        <v>0.9773458351745659</v>
       </c>
       <c r="D9">
-        <v>1.023754187011795</v>
+        <v>0.9996841733285606</v>
       </c>
       <c r="E9">
-        <v>1.018698553742043</v>
+        <v>0.9875460995073473</v>
       </c>
       <c r="F9">
-        <v>1.028360489931845</v>
+        <v>0.9356069276950891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028613165965093</v>
+        <v>1.032485711588652</v>
       </c>
       <c r="J9">
-        <v>1.023155699192395</v>
+        <v>1.003724739138629</v>
       </c>
       <c r="K9">
-        <v>1.026957236602726</v>
+        <v>1.012782376679216</v>
       </c>
       <c r="L9">
-        <v>1.021918623639666</v>
+        <v>1.000844516780545</v>
       </c>
       <c r="M9">
-        <v>1.031548191839349</v>
+        <v>0.9498389325171565</v>
       </c>
       <c r="N9">
-        <v>1.024608697642847</v>
+        <v>1.005150143397043</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015786782401105</v>
+        <v>0.9696713855558902</v>
       </c>
       <c r="D10">
-        <v>1.022665323041222</v>
+        <v>0.9939669292293002</v>
       </c>
       <c r="E10">
-        <v>1.017472513039292</v>
+        <v>0.9815021437311034</v>
       </c>
       <c r="F10">
-        <v>1.025006604673706</v>
+        <v>0.9139980537872917</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028283297828366</v>
+        <v>1.029870630517694</v>
       </c>
       <c r="J10">
-        <v>1.022261312697127</v>
+        <v>0.999142213992694</v>
       </c>
       <c r="K10">
-        <v>1.026159251316915</v>
+        <v>1.008445973760435</v>
       </c>
       <c r="L10">
-        <v>1.020985640993043</v>
+        <v>0.9962136122799221</v>
       </c>
       <c r="M10">
-        <v>1.028491946729126</v>
+        <v>0.9301155067036024</v>
       </c>
       <c r="N10">
-        <v>1.023713041016169</v>
+        <v>1.000561110539777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015159413943473</v>
+        <v>0.9662351796985779</v>
       </c>
       <c r="D11">
-        <v>1.022193717673224</v>
+        <v>0.9914023802510473</v>
       </c>
       <c r="E11">
-        <v>1.016942384589977</v>
+        <v>0.9788051554501399</v>
       </c>
       <c r="F11">
-        <v>1.023546372125335</v>
+        <v>0.9038482648941972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028138299762637</v>
+        <v>1.028660472432356</v>
       </c>
       <c r="J11">
-        <v>1.021873640957981</v>
+        <v>0.997083347317349</v>
       </c>
       <c r="K11">
-        <v>1.025812769532826</v>
+        <v>1.006488277104824</v>
       </c>
       <c r="L11">
-        <v>1.020581606171808</v>
+        <v>0.9941381588041082</v>
       </c>
       <c r="M11">
-        <v>1.027160265774158</v>
+        <v>0.9208438232591254</v>
       </c>
       <c r="N11">
-        <v>1.023324818738687</v>
+        <v>0.998499320037598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014926427750358</v>
+        <v>0.9649403165988862</v>
       </c>
       <c r="D12">
-        <v>1.022018524198061</v>
+        <v>0.9904350696251192</v>
       </c>
       <c r="E12">
-        <v>1.016745585050963</v>
+        <v>0.9777902683331163</v>
       </c>
       <c r="F12">
-        <v>1.023002739510728</v>
+        <v>0.8999368713413958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028084114302721</v>
+        <v>1.028197792070023</v>
       </c>
       <c r="J12">
-        <v>1.021729582629283</v>
+        <v>0.9963063230422694</v>
       </c>
       <c r="K12">
-        <v>1.025683927664414</v>
+        <v>1.005747841862489</v>
       </c>
       <c r="L12">
-        <v>1.020431522562637</v>
+        <v>0.9933557108035712</v>
       </c>
       <c r="M12">
-        <v>1.02666433623751</v>
+        <v>0.9172698234983473</v>
       </c>
       <c r="N12">
-        <v>1.023180555830637</v>
+        <v>0.9977211922989221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014976401986606</v>
+        <v>0.9652189336608732</v>
       </c>
       <c r="D13">
-        <v>1.022056104622318</v>
+        <v>0.9906432524114035</v>
       </c>
       <c r="E13">
-        <v>1.016787794067146</v>
+        <v>0.9780085781123924</v>
       </c>
       <c r="F13">
-        <v>1.023119407166117</v>
+        <v>0.9007826990629167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028095752081325</v>
+        <v>1.02829766283463</v>
       </c>
       <c r="J13">
-        <v>1.021760486338843</v>
+        <v>0.9964735720872484</v>
       </c>
       <c r="K13">
-        <v>1.025711571167516</v>
+        <v>1.0059072907766</v>
       </c>
       <c r="L13">
-        <v>1.020463716327162</v>
+        <v>0.9935240883278662</v>
       </c>
       <c r="M13">
-        <v>1.026770773491289</v>
+        <v>0.9180427333000005</v>
       </c>
       <c r="N13">
-        <v>1.02321150342701</v>
+        <v>0.9978886788567286</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015140154287968</v>
+        <v>0.9661285330681154</v>
       </c>
       <c r="D14">
-        <v>1.022179236499359</v>
+        <v>0.9913227313308991</v>
       </c>
       <c r="E14">
-        <v>1.016926114756133</v>
+        <v>0.9787215390313931</v>
       </c>
       <c r="F14">
-        <v>1.023501460748712</v>
+        <v>0.9035279815397358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028133827450967</v>
+        <v>1.028622505846208</v>
       </c>
       <c r="J14">
-        <v>1.021861734272491</v>
+        <v>0.9970193754719811</v>
       </c>
       <c r="K14">
-        <v>1.025802122346394</v>
+        <v>1.006427351168141</v>
       </c>
       <c r="L14">
-        <v>1.020569200358492</v>
+        <v>0.9940737230362681</v>
       </c>
       <c r="M14">
-        <v>1.027119298486151</v>
+        <v>0.9205511865775542</v>
       </c>
       <c r="N14">
-        <v>1.023312895144337</v>
+        <v>0.9984352573448718</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015241053620799</v>
+        <v>0.9666864657014472</v>
       </c>
       <c r="D15">
-        <v>1.02225509968866</v>
+        <v>0.9917393840578794</v>
       </c>
       <c r="E15">
-        <v>1.017011353782176</v>
+        <v>0.9791590446959646</v>
       </c>
       <c r="F15">
-        <v>1.023736691458786</v>
+        <v>0.9051999453323979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028157243595697</v>
+        <v>1.028820855734973</v>
       </c>
       <c r="J15">
-        <v>1.021924108537253</v>
+        <v>0.9973540016374066</v>
       </c>
       <c r="K15">
-        <v>1.025857894936379</v>
+        <v>1.006745978666925</v>
       </c>
       <c r="L15">
-        <v>1.020634191612214</v>
+        <v>0.9944108103413573</v>
       </c>
       <c r="M15">
-        <v>1.027333865017676</v>
+        <v>0.9220787879796508</v>
       </c>
       <c r="N15">
-        <v>1.023375357987709</v>
+        <v>0.9987703587178345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015828425304555</v>
+        <v>0.9698969290962179</v>
       </c>
       <c r="D16">
-        <v>1.02269661938976</v>
+        <v>0.9941351463024775</v>
       </c>
       <c r="E16">
-        <v>1.017507711857284</v>
+        <v>0.9816793610149511</v>
       </c>
       <c r="F16">
-        <v>1.025103344129028</v>
+        <v>0.9146531982286329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028292875151663</v>
+        <v>1.029949187096538</v>
       </c>
       <c r="J16">
-        <v>1.022287032822232</v>
+        <v>0.9992771965931225</v>
       </c>
       <c r="K16">
-        <v>1.026182226133795</v>
+        <v>1.008574114307953</v>
       </c>
       <c r="L16">
-        <v>1.02101245446002</v>
+        <v>0.9963497941149593</v>
       </c>
       <c r="M16">
-        <v>1.02858014794185</v>
+        <v>0.9307138286990402</v>
       </c>
       <c r="N16">
-        <v>1.023738797666801</v>
+        <v>1.000696284830981</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01619695109616</v>
+        <v>0.9718794969287395</v>
       </c>
       <c r="D17">
-        <v>1.022973540750658</v>
+        <v>0.9956132574263094</v>
       </c>
       <c r="E17">
-        <v>1.017819266588866</v>
+        <v>0.9832381786291872</v>
       </c>
       <c r="F17">
-        <v>1.025958446231257</v>
+        <v>0.9203568229787603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028377372921807</v>
+        <v>1.030635191472937</v>
       </c>
       <c r="J17">
-        <v>1.022514579341268</v>
+        <v>1.000462907178505</v>
       </c>
       <c r="K17">
-        <v>1.026385416103332</v>
+        <v>1.009698641812349</v>
       </c>
       <c r="L17">
-        <v>1.021249716126444</v>
+        <v>0.9975466279596753</v>
       </c>
       <c r="M17">
-        <v>1.029359659179141</v>
+        <v>0.9359219455041775</v>
       </c>
       <c r="N17">
-        <v>1.023966667327994</v>
+        <v>1.001883679261398</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016411936002462</v>
+        <v>0.9730250949345745</v>
       </c>
       <c r="D18">
-        <v>1.023135052725545</v>
+        <v>0.9964669376914665</v>
       </c>
       <c r="E18">
-        <v>1.018001064046954</v>
+        <v>0.9841397835159925</v>
       </c>
       <c r="F18">
-        <v>1.026456445690358</v>
+        <v>0.9236089063772004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028426450465968</v>
+        <v>1.031027935615514</v>
       </c>
       <c r="J18">
-        <v>1.022647265137724</v>
+        <v>1.001147395392978</v>
       </c>
       <c r="K18">
-        <v>1.026503841860151</v>
+        <v>1.010346936350914</v>
       </c>
       <c r="L18">
-        <v>1.021388102292243</v>
+        <v>0.9982380185330888</v>
       </c>
       <c r="M18">
-        <v>1.029813535883532</v>
+        <v>0.9388908032964997</v>
       </c>
       <c r="N18">
-        <v>1.0240995415535</v>
+        <v>1.002569139527647</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016485245406363</v>
+        <v>0.9734139240111658</v>
       </c>
       <c r="D19">
-        <v>1.023190122177898</v>
+        <v>0.9967566195664709</v>
       </c>
       <c r="E19">
-        <v>1.018063064629544</v>
+        <v>0.9844459439644029</v>
       </c>
       <c r="F19">
-        <v>1.026626121676486</v>
+        <v>0.9247056832996897</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028443149314669</v>
+        <v>1.031160636861919</v>
       </c>
       <c r="J19">
-        <v>1.022692501085388</v>
+        <v>1.00137960995605</v>
       </c>
       <c r="K19">
-        <v>1.026544206476116</v>
+        <v>1.010566728377393</v>
       </c>
       <c r="L19">
-        <v>1.021435287626085</v>
+        <v>0.9984726547436614</v>
       </c>
       <c r="M19">
-        <v>1.029968161663071</v>
+        <v>0.9398919398289722</v>
       </c>
       <c r="N19">
-        <v>1.024144841741399</v>
+        <v>1.002801683862034</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016157408661282</v>
+        <v>0.9716679133561911</v>
       </c>
       <c r="D20">
-        <v>1.022943830907654</v>
+        <v>0.995455555823658</v>
       </c>
       <c r="E20">
-        <v>1.017785832176988</v>
+        <v>0.9830717284500846</v>
       </c>
       <c r="F20">
-        <v>1.025866781493667</v>
+        <v>0.9197527502243437</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028368328697372</v>
+        <v>1.030562363682763</v>
       </c>
       <c r="J20">
-        <v>1.022490169710077</v>
+        <v>1.000336434765621</v>
       </c>
       <c r="K20">
-        <v>1.026363625212378</v>
+        <v>1.009578787270935</v>
       </c>
       <c r="L20">
-        <v>1.021224260665783</v>
+        <v>0.9974189187423853</v>
       </c>
       <c r="M20">
-        <v>1.029276107904609</v>
+        <v>0.9353704241715733</v>
       </c>
       <c r="N20">
-        <v>1.023942223032327</v>
+        <v>1.00175702724318</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01509193203915</v>
+        <v>0.9658612029765157</v>
       </c>
       <c r="D21">
-        <v>1.022142977735935</v>
+        <v>0.9911230605729313</v>
       </c>
       <c r="E21">
-        <v>1.016885379617829</v>
+        <v>0.9785119614848916</v>
       </c>
       <c r="F21">
-        <v>1.023388989958041</v>
+        <v>0.9027236750576461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02812262423706</v>
+        <v>1.028527225208063</v>
       </c>
       <c r="J21">
-        <v>1.021831920931736</v>
+        <v>0.9968589983124192</v>
       </c>
       <c r="K21">
-        <v>1.025775461236123</v>
+        <v>1.006274583748464</v>
       </c>
       <c r="L21">
-        <v>1.020538138136107</v>
+        <v>0.993912196522686</v>
       </c>
       <c r="M21">
-        <v>1.027016702296718</v>
+        <v>0.9198162918716141</v>
       </c>
       <c r="N21">
-        <v>1.023283039465219</v>
+        <v>0.9982746524313479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014422292778186</v>
+        <v>0.9621022737374416</v>
       </c>
       <c r="D22">
-        <v>1.021639343887389</v>
+        <v>0.9883129505147058</v>
       </c>
       <c r="E22">
-        <v>1.016319887732223</v>
+        <v>0.9755685141721392</v>
       </c>
       <c r="F22">
-        <v>1.021823926234665</v>
+        <v>0.8911830605307094</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027966248876644</v>
+        <v>1.027170380528402</v>
       </c>
       <c r="J22">
-        <v>1.021417707785826</v>
+        <v>0.9946009036309644</v>
       </c>
       <c r="K22">
-        <v>1.02540483093648</v>
+        <v>1.004119540653767</v>
       </c>
       <c r="L22">
-        <v>1.020106704652715</v>
+        <v>0.991640013529164</v>
       </c>
       <c r="M22">
-        <v>1.025588677584487</v>
+        <v>0.9092694277294172</v>
       </c>
       <c r="N22">
-        <v>1.022868238089131</v>
+        <v>0.9960133509964385</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014777255924655</v>
+        <v>0.9641057724825947</v>
       </c>
       <c r="D23">
-        <v>1.021906339811625</v>
+        <v>0.989811342776676</v>
       </c>
       <c r="E23">
-        <v>1.016619603178323</v>
+        <v>0.9771365734191167</v>
       </c>
       <c r="F23">
-        <v>1.022654289569007</v>
+        <v>0.8973892012153455</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028049326276384</v>
+        <v>1.027897600230799</v>
       </c>
       <c r="J23">
-        <v>1.021637322887156</v>
+        <v>0.9958051748112734</v>
       </c>
       <c r="K23">
-        <v>1.025601387770518</v>
+        <v>1.005269815457113</v>
       </c>
       <c r="L23">
-        <v>1.020335419597578</v>
+        <v>0.9928513095547267</v>
       </c>
       <c r="M23">
-        <v>1.026346418536257</v>
+        <v>0.9149416507771237</v>
       </c>
       <c r="N23">
-        <v>1.023088165069094</v>
+        <v>0.9972193323799554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016175276093178</v>
+        <v>0.9717635521313854</v>
       </c>
       <c r="D24">
-        <v>1.022957255543007</v>
+        <v>0.9955268404874797</v>
       </c>
       <c r="E24">
-        <v>1.017800939523888</v>
+        <v>0.983146963611546</v>
       </c>
       <c r="F24">
-        <v>1.025908203211841</v>
+        <v>0.920025934075646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028372416037635</v>
+        <v>1.030595294157749</v>
       </c>
       <c r="J24">
-        <v>1.022501199490196</v>
+        <v>1.00039360412078</v>
       </c>
       <c r="K24">
-        <v>1.026373471861084</v>
+        <v>1.009632967847536</v>
       </c>
       <c r="L24">
-        <v>1.021235762907147</v>
+        <v>0.9974766456817722</v>
       </c>
       <c r="M24">
-        <v>1.029313863596686</v>
+        <v>0.9356198445282736</v>
       </c>
       <c r="N24">
-        <v>1.023953268475999</v>
+        <v>1.001814277785382</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017798780324638</v>
+        <v>0.980229714682108</v>
       </c>
       <c r="D25">
-        <v>1.024176331214086</v>
+        <v>1.001829550948162</v>
       </c>
       <c r="E25">
-        <v>1.0191746711453</v>
+        <v>0.9898248857602708</v>
       </c>
       <c r="F25">
-        <v>1.02965422741026</v>
+        <v>0.9433973435108888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028739167568079</v>
+        <v>1.033438455310977</v>
       </c>
       <c r="J25">
-        <v>1.023502180669101</v>
+        <v>1.005441250901294</v>
       </c>
       <c r="K25">
-        <v>1.027265844123941</v>
+        <v>1.014399531731307</v>
       </c>
       <c r="L25">
-        <v>1.022280382433029</v>
+        <v>1.002583237984189</v>
       </c>
       <c r="M25">
-        <v>1.032726197203327</v>
+        <v>0.9569428617542938</v>
       </c>
       <c r="N25">
-        <v>1.024955671162993</v>
+        <v>1.006869092803297</v>
       </c>
     </row>
   </sheetData>
